--- a/biology/Zoologie/Conus_fuscatus/Conus_fuscatus.xlsx
+++ b/biology/Zoologie/Conus_fuscatus/Conus_fuscatus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Conus fuscatus est une espèce de mollusques gastéropodes marins de la famille des Conidae.
 Comme toutes les espèces du genre Conus, ces escargots sont prédateurs et venimeux. Ils sont capables de « piquer » les humains et doivent donc être manipulés avec précaution, voire pas du tout.
@@ -512,9 +524,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est présente dans les endroits suivants[1]: 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est présente dans les endroits suivants: 
 Bassin des Mascareignes
 Maurice</t>
         </is>
@@ -546,10 +560,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Publication originale
-L'espèce Conus fuscatus a été décrite pour la première fois en 1778 par le métallurgiste, minéralogiste, malacologiste et franc-maçon autrichien Ignaz von Born dans « Verzeichniß der natürlichen Seltenheiten des k. k. Naturalien Cabinets zu Wien »[2],[1].
-Synonymes
-Conus (Stephanoconus) fuscatus Born, 1778 · appellation alternative
+          <t>Publication originale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Conus fuscatus a été décrite pour la première fois en 1778 par le métallurgiste, minéralogiste, malacologiste et franc-maçon autrichien Ignaz von Born dans « Verzeichniß der natürlichen Seltenheiten des k. k. Naturalien Cabinets zu Wien »,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Conus_fuscatus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Conus_fuscatus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxonomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Conus (Stephanoconus) fuscatus Born, 1778 · appellation alternative
 Rhombiconus fuscatus (Born, 1778) · non accepté</t>
         </is>
       </c>
